--- a/Sample/Messestand X.xlsx
+++ b/Sample/Messestand X.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\3 Zeiss\BuildingFairs\BuildingFairs\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CAE02E8-3CAF-48DE-B6FE-EB13C97FD8D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57004B0F-31B2-42A6-ABDD-CDF930D06B28}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11265" xr2:uid="{48A34896-B49C-4F8C-A831-2532E1A8DAE3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Länge</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Typ 1</t>
+  </si>
+  <si>
+    <t>Spanstreifenrichtung</t>
+  </si>
+  <si>
+    <t>quer</t>
   </si>
 </sst>
 </file>
@@ -411,20 +417,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635955AF-E7EF-4ED8-8CFB-1B5D1AB30356}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>12000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -432,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -456,6 +465,14 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
